--- a/team_specific_matrix/Old Dominion_B.xlsx
+++ b/team_specific_matrix/Old Dominion_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2122302158273381</v>
+        <v>0.2144927536231884</v>
       </c>
       <c r="C2">
-        <v>0.5359712230215827</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007194244604316547</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1690647482014389</v>
+        <v>0.1594202898550725</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07553956834532374</v>
+        <v>0.08405797101449275</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01282051282051282</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="C3">
-        <v>0.03205128205128205</v>
+        <v>0.03141361256544502</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03846153846153846</v>
+        <v>0.05235602094240838</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.717948717948718</v>
+        <v>0.6963350785340314</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1987179487179487</v>
+        <v>0.2094240837696335</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05882352941176471</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7352941176470589</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2058823529411765</v>
+        <v>0.2045454545454546</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1081081081081081</v>
+        <v>0.1043956043956044</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006756756756756757</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="E6">
-        <v>0.006756756756756757</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="F6">
-        <v>0.01351351351351351</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2972972972972973</v>
+        <v>0.3131868131868132</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01351351351351351</v>
+        <v>0.01648351648351648</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1351351351351351</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="R6">
-        <v>0.07432432432432433</v>
+        <v>0.08241758241758242</v>
       </c>
       <c r="S6">
-        <v>0.3445945945945946</v>
+        <v>0.3461538461538461</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1138211382113821</v>
+        <v>0.1140939597315436</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.008130081300813009</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.008130081300813009</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1300813008130081</v>
+        <v>0.1275167785234899</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01626016260162602</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2113821138211382</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="R7">
-        <v>0.1544715447154472</v>
+        <v>0.1342281879194631</v>
       </c>
       <c r="S7">
-        <v>0.3577235772357724</v>
+        <v>0.3691275167785235</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1187845303867403</v>
+        <v>0.1127982646420824</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.008287292817679558</v>
+        <v>0.008676789587852495</v>
       </c>
       <c r="E8">
-        <v>0.005524861878453038</v>
+        <v>0.004338394793926247</v>
       </c>
       <c r="F8">
-        <v>0.04972375690607735</v>
+        <v>0.05422993492407809</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1187845303867403</v>
+        <v>0.1258134490238612</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03591160220994475</v>
+        <v>0.03036876355748373</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1519337016574586</v>
+        <v>0.1540130151843818</v>
       </c>
       <c r="R8">
-        <v>0.08287292817679558</v>
+        <v>0.07592190889370933</v>
       </c>
       <c r="S8">
-        <v>0.4281767955801105</v>
+        <v>0.4338394793926247</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09027777777777778</v>
+        <v>0.08187134502923976</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01388888888888889</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04166666666666666</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1666666666666667</v>
+        <v>0.1812865497076023</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01388888888888889</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1597222222222222</v>
+        <v>0.1812865497076023</v>
       </c>
       <c r="R9">
-        <v>0.1180555555555556</v>
+        <v>0.1228070175438596</v>
       </c>
       <c r="S9">
-        <v>0.3958333333333333</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.123249299719888</v>
+        <v>0.1264280274181264</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02521008403361345</v>
+        <v>0.02665651180502666</v>
       </c>
       <c r="E10">
-        <v>0.0009337068160597573</v>
+        <v>0.001523229246001523</v>
       </c>
       <c r="F10">
-        <v>0.06535947712418301</v>
+        <v>0.06321401370906321</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1139122315592904</v>
+        <v>0.1142421934501142</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01680672268907563</v>
+        <v>0.01751713632901752</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1708683473389356</v>
+        <v>0.1706016755521706</v>
       </c>
       <c r="R10">
-        <v>0.1017740429505135</v>
+        <v>0.1020563594821021</v>
       </c>
       <c r="S10">
-        <v>0.3818860877684407</v>
+        <v>0.3777608530083778</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.004694835680751174</v>
+        <v>0.00390625</v>
       </c>
       <c r="G11">
-        <v>0.1502347417840376</v>
+        <v>0.15625</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1173708920187793</v>
+        <v>0.1171875</v>
       </c>
       <c r="K11">
-        <v>0.2206572769953052</v>
+        <v>0.2265625</v>
       </c>
       <c r="L11">
-        <v>0.4929577464788732</v>
+        <v>0.4765625</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01408450704225352</v>
+        <v>0.01953125</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7075471698113207</v>
+        <v>0.6991869918699187</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2358490566037736</v>
+        <v>0.2357723577235772</v>
       </c>
       <c r="K12">
-        <v>0.009433962264150943</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="L12">
-        <v>0.03773584905660377</v>
+        <v>0.04065040650406504</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.009433962264150943</v>
+        <v>0.008130081300813009</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6153846153846154</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3076923076923077</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07692307692307693</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0261437908496732</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1176470588235294</v>
+        <v>0.1197916666666667</v>
       </c>
       <c r="I15">
-        <v>0.0718954248366013</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="J15">
-        <v>0.3464052287581699</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="K15">
-        <v>0.0718954248366013</v>
+        <v>0.0625</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0261437908496732</v>
+        <v>0.02604166666666667</v>
       </c>
       <c r="N15">
-        <v>0.006535947712418301</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="O15">
-        <v>0.03267973856209151</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3006535947712418</v>
+        <v>0.2864583333333333</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02247191011235955</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2022471910112359</v>
+        <v>0.1981132075471698</v>
       </c>
       <c r="I16">
-        <v>0.06741573033707865</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="J16">
-        <v>0.4325842696629214</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="K16">
-        <v>0.08426966292134831</v>
+        <v>0.08490566037735849</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01685393258426966</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07303370786516854</v>
+        <v>0.0660377358490566</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.101123595505618</v>
+        <v>0.09905660377358491</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01967213114754099</v>
+        <v>0.02110817941952507</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1967213114754098</v>
+        <v>0.1952506596306069</v>
       </c>
       <c r="I17">
-        <v>0.09836065573770492</v>
+        <v>0.09234828496042216</v>
       </c>
       <c r="J17">
-        <v>0.4557377049180328</v>
+        <v>0.4617414248021108</v>
       </c>
       <c r="K17">
-        <v>0.04590163934426229</v>
+        <v>0.04749340369393139</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02295081967213115</v>
+        <v>0.01846965699208443</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002638522427440633</v>
       </c>
       <c r="O17">
-        <v>0.06557377049180328</v>
+        <v>0.0633245382585752</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09508196721311475</v>
+        <v>0.09762532981530343</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01081081081081081</v>
+        <v>0.01339285714285714</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2054054054054054</v>
+        <v>0.1875</v>
       </c>
       <c r="I18">
-        <v>0.07027027027027027</v>
+        <v>0.05803571428571429</v>
       </c>
       <c r="J18">
-        <v>0.4432432432432433</v>
+        <v>0.4553571428571428</v>
       </c>
       <c r="K18">
-        <v>0.1135135135135135</v>
+        <v>0.1116071428571429</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01081081081081081</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="N18">
-        <v>0.005405405405405406</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="O18">
-        <v>0.04864864864864865</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0918918918918919</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01206030150753769</v>
+        <v>0.01299756295694557</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2110552763819095</v>
+        <v>0.2266450040617384</v>
       </c>
       <c r="I19">
-        <v>0.07839195979899498</v>
+        <v>0.07554833468724614</v>
       </c>
       <c r="J19">
-        <v>0.4120603015075377</v>
+        <v>0.3964256701868399</v>
       </c>
       <c r="K19">
-        <v>0.1025125628140704</v>
+        <v>0.0982940698619009</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01105527638190955</v>
+        <v>0.01462225832656377</v>
       </c>
       <c r="N19">
-        <v>0.001005025125628141</v>
+        <v>0.0008123476848090983</v>
       </c>
       <c r="O19">
-        <v>0.05527638190954774</v>
+        <v>0.05605199025182778</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1165829145728643</v>
+        <v>0.1186027619821284</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Old Dominion_B.xlsx
+++ b/team_specific_matrix/Old Dominion_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2144927536231884</v>
+        <v>0.208994708994709</v>
       </c>
       <c r="C2">
-        <v>0.5333333333333333</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008695652173913044</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1594202898550725</v>
+        <v>0.1560846560846561</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08405797101449275</v>
+        <v>0.07936507936507936</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01047120418848168</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="C3">
-        <v>0.03141361256544502</v>
+        <v>0.02803738317757009</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05235602094240838</v>
+        <v>0.04672897196261682</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6963350785340314</v>
+        <v>0.7102803738317757</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2094240837696335</v>
+        <v>0.205607476635514</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06818181818181818</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7272727272727273</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2045454545454546</v>
+        <v>0.196078431372549</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1043956043956044</v>
+        <v>0.1</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005494505494505495</v>
+        <v>0.005</v>
       </c>
       <c r="E6">
-        <v>0.005494505494505495</v>
+        <v>0.005</v>
       </c>
       <c r="F6">
-        <v>0.01098901098901099</v>
+        <v>0.015</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3131868131868132</v>
+        <v>0.315</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01648351648351648</v>
+        <v>0.015</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1153846153846154</v>
+        <v>0.115</v>
       </c>
       <c r="R6">
-        <v>0.08241758241758242</v>
+        <v>0.08</v>
       </c>
       <c r="S6">
-        <v>0.3461538461538461</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1140939597315436</v>
+        <v>0.106508875739645</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006711409395973154</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.006711409395973154</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1275167785234899</v>
+        <v>0.1301775147928994</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01342281879194631</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2281879194630873</v>
+        <v>0.2071005917159763</v>
       </c>
       <c r="R7">
-        <v>0.1342281879194631</v>
+        <v>0.136094674556213</v>
       </c>
       <c r="S7">
-        <v>0.3691275167785235</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1127982646420824</v>
+        <v>0.1150793650793651</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.008676789587852495</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="E8">
-        <v>0.004338394793926247</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="F8">
-        <v>0.05422993492407809</v>
+        <v>0.05158730158730158</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1258134490238612</v>
+        <v>0.121031746031746</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03036876355748373</v>
+        <v>0.02976190476190476</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1540130151843818</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="R8">
-        <v>0.07592190889370933</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="S8">
-        <v>0.4338394793926247</v>
+        <v>0.4384920634920635</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08187134502923976</v>
+        <v>0.09183673469387756</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01754385964912281</v>
+        <v>0.02551020408163265</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03508771929824561</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1812865497076023</v>
+        <v>0.1683673469387755</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01169590643274854</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1812865497076023</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="R9">
-        <v>0.1228070175438596</v>
+        <v>0.1326530612244898</v>
       </c>
       <c r="S9">
-        <v>0.3684210526315789</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1264280274181264</v>
+        <v>0.1245722108145106</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02665651180502666</v>
+        <v>0.02600958247775496</v>
       </c>
       <c r="E10">
-        <v>0.001523229246001523</v>
+        <v>0.001368925393566051</v>
       </c>
       <c r="F10">
-        <v>0.06321401370906321</v>
+        <v>0.06297056810403832</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1142421934501142</v>
+        <v>0.1122518822724162</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01751713632901752</v>
+        <v>0.01642710472279261</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1706016755521706</v>
+        <v>0.1765913757700205</v>
       </c>
       <c r="R10">
-        <v>0.1020563594821021</v>
+        <v>0.09924709103353867</v>
       </c>
       <c r="S10">
-        <v>0.3777608530083778</v>
+        <v>0.3805612594113621</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.00390625</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="G11">
-        <v>0.15625</v>
+        <v>0.1554054054054054</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1171875</v>
+        <v>0.1216216216216216</v>
       </c>
       <c r="K11">
-        <v>0.2265625</v>
+        <v>0.2331081081081081</v>
       </c>
       <c r="L11">
-        <v>0.4765625</v>
+        <v>0.4695945945945946</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01953125</v>
+        <v>0.01689189189189189</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6991869918699187</v>
+        <v>0.6928571428571428</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2357723577235772</v>
+        <v>0.25</v>
       </c>
       <c r="K12">
-        <v>0.01626016260162602</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="L12">
-        <v>0.04065040650406504</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.008130081300813009</v>
+        <v>0.007142857142857143</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6764705882352942</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2647058823529412</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05882352941176471</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02083333333333333</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1197916666666667</v>
+        <v>0.1262135922330097</v>
       </c>
       <c r="I15">
-        <v>0.07291666666666667</v>
+        <v>0.07766990291262135</v>
       </c>
       <c r="J15">
-        <v>0.3541666666666667</v>
+        <v>0.3640776699029126</v>
       </c>
       <c r="K15">
-        <v>0.0625</v>
+        <v>0.05825242718446602</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02604166666666667</v>
+        <v>0.02427184466019417</v>
       </c>
       <c r="N15">
-        <v>0.005208333333333333</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="O15">
-        <v>0.05208333333333334</v>
+        <v>0.04854368932038835</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2864583333333333</v>
+        <v>0.2766990291262136</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02830188679245283</v>
+        <v>0.025</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1981132075471698</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="I16">
-        <v>0.07547169811320754</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="J16">
-        <v>0.4339622641509434</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="K16">
-        <v>0.08490566037735849</v>
+        <v>0.075</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01415094339622642</v>
+        <v>0.0125</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0660377358490566</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09905660377358491</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02110817941952507</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1952506596306069</v>
+        <v>0.1985981308411215</v>
       </c>
       <c r="I17">
-        <v>0.09234828496042216</v>
+        <v>0.09579439252336448</v>
       </c>
       <c r="J17">
-        <v>0.4617414248021108</v>
+        <v>0.4602803738317757</v>
       </c>
       <c r="K17">
-        <v>0.04749340369393139</v>
+        <v>0.0514018691588785</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01846965699208443</v>
+        <v>0.02102803738317757</v>
       </c>
       <c r="N17">
-        <v>0.002638522427440633</v>
+        <v>0.002336448598130841</v>
       </c>
       <c r="O17">
-        <v>0.0633245382585752</v>
+        <v>0.0630841121495327</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09762532981530343</v>
+        <v>0.08878504672897196</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01339285714285714</v>
+        <v>0.01214574898785425</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1875</v>
+        <v>0.1821862348178138</v>
       </c>
       <c r="I18">
-        <v>0.05803571428571429</v>
+        <v>0.06072874493927125</v>
       </c>
       <c r="J18">
-        <v>0.4553571428571428</v>
+        <v>0.4696356275303644</v>
       </c>
       <c r="K18">
-        <v>0.1116071428571429</v>
+        <v>0.1093117408906883</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.008928571428571428</v>
+        <v>0.008097165991902834</v>
       </c>
       <c r="N18">
-        <v>0.004464285714285714</v>
+        <v>0.004048582995951417</v>
       </c>
       <c r="O18">
-        <v>0.05357142857142857</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1071428571428571</v>
+        <v>0.1012145748987854</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01299756295694557</v>
+        <v>0.01241782322863404</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2266450040617384</v>
+        <v>0.2220598977355734</v>
       </c>
       <c r="I19">
-        <v>0.07554833468724614</v>
+        <v>0.07669831994156319</v>
       </c>
       <c r="J19">
-        <v>0.3964256701868399</v>
+        <v>0.39590942293645</v>
       </c>
       <c r="K19">
-        <v>0.0982940698619009</v>
+        <v>0.1044558071585099</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01462225832656377</v>
+        <v>0.01460920379839299</v>
       </c>
       <c r="N19">
-        <v>0.0008123476848090983</v>
+        <v>0.0007304601899196494</v>
       </c>
       <c r="O19">
-        <v>0.05605199025182778</v>
+        <v>0.0547845142439737</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1186027619821284</v>
+        <v>0.1183345507669832</v>
       </c>
     </row>
   </sheetData>
